--- a/seoul-urban-map-20161022/seoul-urban-map-20161022.xlsx
+++ b/seoul-urban-map-20161022/seoul-urban-map-20161022.xlsx
@@ -14,16 +14,16 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
     <t>state</t>
   </si>
   <si>
-    <t>key</t>
-  </si>
-  <si>
     <t>something</t>
-  </si>
-  <si>
-    <t>value</t>
   </si>
   <si>
     <t>another_thing</t>
@@ -41,10 +41,10 @@
     <t>2</t>
   </si>
   <si>
-    <t>subhed</t>
+    <t>1819</t>
   </si>
   <si>
-    <t>1819</t>
+    <t>subhed</t>
   </si>
   <si>
     <t>Alaska</t>
@@ -146,10 +146,10 @@
     </font>
     <font>
       <b/>
+      <sz val="14.0"/>
     </font>
     <font>
       <b/>
-      <sz val="14.0"/>
     </font>
     <font>
       <sz val="14.0"/>
@@ -171,49 +171,44 @@
     </fill>
   </fills>
   <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-    </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
   <cellXfs count="12">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -223,15 +218,18 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -242,36 +240,36 @@
   </cols>
   <sheetData>
     <row r="1" ht="33.0" customHeight="1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
-      <c r="U1" s="4"/>
-      <c r="V1" s="4"/>
-      <c r="W1" s="4"/>
-      <c r="X1" s="4"/>
-      <c r="Y1" s="4"/>
-      <c r="Z1" s="4"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
     </row>
     <row r="2" ht="33.0" customHeight="1">
       <c r="A2" s="6" t="s">
@@ -307,7 +305,7 @@
     </row>
     <row r="3" ht="33.0" customHeight="1">
       <c r="A3" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>14</v>
@@ -840,6 +838,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -851,13 +852,13 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
+      <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D1" s="5"/>
@@ -892,7 +893,7 @@
         <v>8</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
